--- a/assets/THEINT YADANAR LWIN.xlsx
+++ b/assets/THEINT YADANAR LWIN.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheintYadanarLwin\ITPEC\SKYHOME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Act One Training\portfolio\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91986D48-9D50-417C-8B2F-FFAFEA614E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC23936-4F6D-409C-AE2F-D15D514E30E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Theint Yadanar Lwin_履歴書" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -191,9 +191,6 @@
     <t>日本語能力試験N4級【JLPT】　合格</t>
   </si>
   <si>
-    <t>9月</t>
-  </si>
-  <si>
     <t>Metateam Myanmar メタチーム・ミャンマー 開始</t>
   </si>
   <si>
@@ -214,30 +211,36 @@
 英語でのコミュニケーション</t>
   </si>
   <si>
-    <t xml:space="preserve"> 初めまして。私はテインヤダナーリインと申します。2022年9月から現在までＭＥＴＡＴＥＡＭ株式会社で勤務し、現在はシニアデベロッパーとして働いています。PHP、Laravel、Vue.js、Docker、AWS Services を活用して、カスタマープロジェクトに約2年以上従事 しています。
-実装を中心に行い、テストケースの作成 を学びながら、ユニットテストおよび統合テスト を実施しています。また、要件定義から設計、実装、リリースまでの一貫した担当 経験があり、AWS SESを用いたメール送信機能や自動バックアップ機能の開発 を通じて、運用効率の向上 を実現した実績があります。
+    <t>U ZAW MIN LWIN</t>
+  </si>
+  <si>
+    <t>DAW YIN YIN PYONE</t>
+  </si>
+  <si>
+    <t>正社員</t>
+  </si>
+  <si>
+    <t>No 786 , Nguwar Street , Kyauktan Tsp, Yangon</t>
+  </si>
+  <si>
+    <t>依存</t>
+  </si>
+  <si>
+    <t>Metateam Myanmar メタチーム・ミャンマー 継続中</t>
+  </si>
+  <si>
+    <t>自己アピールなど</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 初めまして。私はテインヤダナーリインと申します。
+2016年にヤンゴン・コンピュータ・スタディーズ大学のコンピュータ技術専攻に入学。コロナ禍で大学が休校となった期間中、アニメの影響で日本語を独学し、2022年にJLPT N4に合格いたしました。　そして 2024年にJLPT N3にも合格いたしました。
+2024年4月に基本情報技術者試験に取得しました。
+2022年5月にMetateam Myanmar（ミャンマー拠点の日本向けオフショア開発企業）でOJTを開始し、同年9月にジュニア開発者として正式採用。2024年4月にシニア開発者に昇進いたしました。
+現在は日本でのリモートワークを目標とし、Java Spring Bootの学習など、継続的な技術向上に取り組んでおります。チームコミュニケーションを重視し、責任感を持って業務に取り組む姿勢が評価されています。
 日本での仕事を通じてさらに成長し、貴社のプロジェクトに貢献したいと考えています。どうぞよろしくお願い申し上げます。</t>
-  </si>
-  <si>
-    <t>U ZAW MIN LWIN</t>
-  </si>
-  <si>
-    <t>DAW YIN YIN PYONE</t>
-  </si>
-  <si>
-    <t>正社員</t>
-  </si>
-  <si>
-    <t>No 786 , Nguwar Street , Kyauktan Tsp, Yangon</t>
-  </si>
-  <si>
-    <t>依存</t>
-  </si>
-  <si>
-    <t>Metateam Myanmar メタチーム・ミャンマー 継続中</t>
-  </si>
-  <si>
-    <t>自己アピールなど</t>
   </si>
 </sst>
 </file>
@@ -407,6 +410,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -419,20 +446,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,24 +474,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,9 +667,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,9 +702,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,9 +754,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:R24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
@@ -941,705 +978,705 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="27.9" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:30" ht="35.1" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:30" ht="24.9" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:30" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="16"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:30" ht="18.899999999999999" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:30" ht="38.1" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:30" ht="26.1" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:30" ht="26.1" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
       <c r="AD10" s="6"/>
     </row>
     <row r="11" spans="1:30" ht="26.1" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:30" ht="29.4" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:30" ht="26.1" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:30" ht="27.9" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+      <c r="F15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:30" ht="27.9" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
     </row>
     <row r="18" spans="1:18" ht="28.2" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" ht="28.2" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" ht="28.2" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="28.2" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" ht="25.8" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="130.19999999999999" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" ht="130.19999999999999" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" ht="90" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="1:18" ht="90" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" ht="61.2" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="61.2" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" ht="45.9" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" ht="30.9" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
     </row>
     <row r="28" spans="1:18" ht="30.9" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+    </row>
+    <row r="29" spans="1:18" ht="221.4" customHeight="1">
+      <c r="A29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" ht="192.6" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="4"/>
@@ -1684,117 +1721,181 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" ht="22.2" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="15" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="10" t="s">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="15" t="s">
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="15"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18" ht="34.799999999999997" customHeight="1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18">
+        <v>58</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10">
-        <v>58</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10" t="s">
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="34.799999999999997" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
+        <v>57</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R33" s="15"/>
-    </row>
-    <row r="34" spans="1:18" ht="34.799999999999997" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10">
-        <v>57</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="15"/>
+      <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18" ht="34.799999999999997" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:R26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="R1:R7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:R11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:R12"/>
     <mergeCell ref="A21:D21"/>
@@ -1811,70 +1912,6 @@
     <mergeCell ref="F18:R18"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="R1:R7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C22:R22"/>
-    <mergeCell ref="C23:R23"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="C25:R25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:R26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
